--- a/data/results/raw_combined_features_refined/untrained_testing.xlsx
+++ b/data/results/raw_combined_features_refined/untrained_testing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Episode</t>
+          <t>Values</t>
         </is>
       </c>
       <c r="C1" s="1" t="n">
@@ -453,59 +453,81 @@
       </c>
       <c r="G1" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Final Value</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1691505.018026276</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1692665.373855845</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1691182.308938605</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1692047.795448294</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1692222.519107871</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1691814.698153906</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1692360.152185147</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1692043.042769605</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1691372.305646873</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1691646.009979144</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1692301.265630895</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1692782.410011607</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1692984.870795297</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1692211.046221594</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1691846.59224125</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Annualized Return</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1895782454560733</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.189847701033854</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1895032845774076</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1897043035800674</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1897448767658645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7406116551948297</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7417213538127997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7402971903190578</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7411251441401773</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7410931340116486</v>
       </c>
     </row>
   </sheetData>
